--- a/bin/学生信息.xlsx
+++ b/bin/学生信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v25bh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\web\temp\图书馆管理系统\bin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E39C65-B703-428A-9A09-2FCD79DA915E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9CF1BD-6029-4BE5-9DDA-FA285401BA9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2085" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>郭钰鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>215960200505265485</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,6 +48,90 @@
   </si>
   <si>
     <t>123456159585251455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毕业时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>咕咕咕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-6-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-12-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125985555555556455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018-14-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友人A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>258888999999999999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3256666666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-5-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能与计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人2号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>258888999999999989</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>258888999999999799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3256666656</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3256666466</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020525255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路人B</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,49 +458,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="31.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>3019244253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>2030258888</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3215888888</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
